--- a/data/trans_dic/IP07C30_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 51,62</t>
+          <t>0,0; 54,03</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 30,97</t>
+          <t>2,91; 35,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 35,01</t>
+          <t>4,21; 34,48</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 15,85</t>
+          <t>7,0; 15,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,39; 20,62</t>
+          <t>10,84; 21,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 16,33</t>
+          <t>9,59; 16,46</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 33,56</t>
+          <t>12,48; 33,23</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 20,64</t>
+          <t>3,72; 21,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,67; 24,42</t>
+          <t>9,59; 23,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 17,89</t>
+          <t>8,79; 17,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,9; 19,06</t>
+          <t>10,09; 18,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,64</t>
+          <t>10,78; 16,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP07C30_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP07C30_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,18 +497,18 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Menores que han vivido situaciones de cyberbulling en su colegio</t>
+          <t>Menores en cuyo colegio/instituto se han producido situaciones de cyberbulling</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 54,03</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 35,07</t>
+          <t>0; 9,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 34,48</t>
+          <t>0; 4,9</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,7%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,0; 15,46</t>
+          <t>0; 0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 21,47</t>
+          <t>0; 0,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 16,46</t>
+          <t>0; 0,46</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>21,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,48; 33,23</t>
+          <t>0; 3,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,72; 21,13</t>
+          <t>0; 2,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,59; 23,72</t>
+          <t>0; 1,51</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,97%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>13,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,79; 17,36</t>
+          <t>0; 0,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 18,77</t>
+          <t>0; 0,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 16,66</t>
+          <t>0; 0,33</t>
         </is>
       </c>
     </row>
